--- a/biology/Histoire de la zoologie et de la botanique/John_Charles_Walker/John_Charles_Walker.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Charles_Walker/John_Charles_Walker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Charles Walker (6 juillet 1893, Racine-25 novembre 1994, Sun City) est un agronome américain connu pour ses travaux sur la résistance des plantes aux maladies[1],[2],[3].
-Le New York Times déclara que « les recherches pionnières de Walker sur la résistance des plantes aux maladies ont eu une forte influence sur l’agriculture mondiale » et qu'il « était le premier scientifique à démontrer l’origine chimique de la résistance des plantes aux maladies »[1].
-Walker est surtout connu pour avoir développé des variétés résistantes d'oignons, de choux, de haricots, de betteraves et de concombres[1],[2].
-L'Académie nationale des sciences déclara qu'il était considéré comme « un des plus grands phytopathologistes  mondiaux » et que « ses découvertes fondamentales sur la résistance des plantes aux maladies avaient eu une influence durable sur l’agriculture mondiale »[2].
-Walker est professeur émérite à l'Université du Wisconsin à Madison[1], président en 1943 et membre honoraire en 1965 de l'American Phytopathological Society.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Charles Walker (6 juillet 1893, Racine-25 novembre 1994, Sun City) est un agronome américain connu pour ses travaux sur la résistance des plantes aux maladies.
+Le New York Times déclara que « les recherches pionnières de Walker sur la résistance des plantes aux maladies ont eu une forte influence sur l’agriculture mondiale » et qu'il « était le premier scientifique à démontrer l’origine chimique de la résistance des plantes aux maladies ».
+Walker est surtout connu pour avoir développé des variétés résistantes d'oignons, de choux, de haricots, de betteraves et de concombres,.
+L'Académie nationale des sciences déclara qu'il était considéré comme « un des plus grands phytopathologistes  mondiaux » et que « ses découvertes fondamentales sur la résistance des plantes aux maladies avaient eu une influence durable sur l’agriculture mondiale ».
+Walker est professeur émérite à l'Université du Wisconsin à Madison, président en 1943 et membre honoraire en 1965 de l'American Phytopathological Society.
 </t>
         </is>
       </c>
@@ -515,15 +527,17 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1945 : Élu à l'Académie nationale des sciences[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1945 : Élu à l'Académie nationale des sciences
 1960 : Docteur honoris causa en sciences de l'Université de Göttingen en Allemagne
 1963 : Médaille du Mérite de la Société américaine de botanique
-1965 : Membre honoraire de la Société phytopathologique américaine[2]
-1970 : Award of Distinction, de la Société phytopathologique américaine[2]
-1972 : Prix E. C. Stakeman de l'Université du Minnesota[2]
-1978 : Lauréat du Prix de la Fondation Wolf en agriculture en Israël[1],[2]</t>
+1965 : Membre honoraire de la Société phytopathologique américaine
+1970 : Award of Distinction, de la Société phytopathologique américaine
+1972 : Prix E. C. Stakeman de l'Université du Minnesota
+1978 : Lauréat du Prix de la Fondation Wolf en agriculture en Israël,</t>
         </is>
       </c>
     </row>
